--- a/public/format import siswa dan guru/Guru.xlsx
+++ b/public/format import siswa dan guru/Guru.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E6329B-8FA9-4F69-B259-692D185E4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{204C7D12-FD36-4444-8044-D63A86F23586}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NO</t>
   </si>
@@ -62,28 +56,13 @@
     <t>Guru5</t>
   </si>
   <si>
-    <t>Guru6</t>
-  </si>
-  <si>
-    <t>Guru7</t>
-  </si>
-  <si>
-    <t>Guru8</t>
-  </si>
-  <si>
-    <t>Guru9</t>
-  </si>
-  <si>
-    <t>Guru10</t>
-  </si>
-  <si>
-    <t>Guru11</t>
+    <t>Guru1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +147,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -230,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -282,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -476,18 +461,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9C7713-4808-43CC-AC4E-1AF290CB1665}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,14 +507,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
-        <v>201903010005</v>
+        <v>201903010001</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>B2&amp;"@gmail.com"</f>
-        <v>Guru2@gmail.com</v>
+        <v>Guru1@gmail.com</v>
       </c>
       <c r="E2" s="3">
         <v>12345678</v>
@@ -541,14 +526,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>201903010006</v>
+        <v>201903010002</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D11" si="0">B3&amp;"@gmail.com"</f>
-        <v>Guru3@gmail.com</v>
+        <f t="shared" ref="D3:D6" si="0">B3&amp;"@gmail.com"</f>
+        <v>Guru2@gmail.com</v>
       </c>
       <c r="E3" s="3">
         <v>12345678</v>
@@ -560,14 +545,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>201903010007</v>
+        <v>201903010003</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Guru4@gmail.com</v>
+        <v>Guru3@gmail.com</v>
       </c>
       <c r="E4" s="3">
         <v>12345678</v>
@@ -579,14 +564,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>201903010008</v>
+        <v>201903010004</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Guru5@gmail.com</v>
+        <v>Guru4@gmail.com</v>
       </c>
       <c r="E5" s="3">
         <v>12345678</v>
@@ -598,14 +583,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>201903010009</v>
+        <v>201903010005</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Guru6@gmail.com</v>
+        <v>Guru5@gmail.com</v>
       </c>
       <c r="E6" s="3">
         <v>12345678</v>
@@ -613,99 +598,114 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>201903010010</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Guru7@gmail.com</v>
-      </c>
-      <c r="E7" s="3">
-        <v>12345678</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>201903010011</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Guru8@gmail.com</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12345678</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>201903010012</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Guru9@gmail.com</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12345678</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>201903010013</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Guru10@gmail.com</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12345678</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>201903010014</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Guru11@gmail.com</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12345678</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
